--- a/results/I3_N5_M3_T30_C200_DepCentral_s3_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepCentral_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.18571823728904</v>
+        <v>25.94820739395058</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1860001087188721</v>
+        <v>0.1540000438690186</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18571823728904</v>
+        <v>25.94820739395058</v>
       </c>
     </row>
     <row r="7">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.10555953090581</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>24.69944561180952</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>26.23570364914818</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.88393248259576</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.55091596648892</v>
+        <v>27.05666855417199</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>152.399000000065</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01900000002207</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>41.23200000000362</v>
+        <v>121.2</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>163.329999999949</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>89.35200000002628</v>
+        <v>184.8</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>152.399000000127</v>
+        <v>184.8</v>
       </c>
     </row>
     <row r="9">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>163.3299999999051</v>
+        <v>121.2</v>
       </c>
     </row>
   </sheetData>
